--- a/target/test-classes/urunListesi.xlsx
+++ b/target/test-classes/urunListesi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmetbulutluoz/Desktop/My Desktop/course/projeler/WiseVideoDersleri_Cucumber/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9BA52E-0527-5D4A-ACE3-404283312858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA18986-6CD0-7C4C-A728-1428DD2C12FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="2720" windowWidth="10000" windowHeight="17820" xr2:uid="{22DF3046-C972-F748-85B5-9CE5F61C6D5F}"/>
+    <workbookView xWindow="1680" yWindow="2700" windowWidth="13140" windowHeight="17820" xr2:uid="{22DF3046-C972-F748-85B5-9CE5F61C6D5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,16 +441,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F45082-77CB-8547-A6D1-3DC7353AE3BC}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="22.5"/>
-    <col min="2" max="2" customWidth="true" width="37.1640625"/>
+    <col min="2" max="2" customWidth="true" width="29.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -471,6 +471,9 @@
       <c r="C2" t="n" s="0">
         <v>4.0</v>
       </c>
+      <c r="D2" t="n" s="0">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s" s="0">
@@ -482,6 +485,9 @@
       <c r="C3" t="n" s="0">
         <v>10.0</v>
       </c>
+      <c r="D3" t="n" s="0">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s" s="0">
@@ -493,6 +499,9 @@
       <c r="C4" t="n" s="0">
         <v>0.0</v>
       </c>
+      <c r="D4" t="n" s="0">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s" s="0">
@@ -504,6 +513,9 @@
       <c r="C5" t="n" s="0">
         <v>0.0</v>
       </c>
+      <c r="D5" t="n" s="0">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s" s="0">
@@ -515,6 +527,9 @@
       <c r="C6" t="n" s="0">
         <v>3.0</v>
       </c>
+      <c r="D6" t="n" s="0">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s" s="0">
@@ -526,6 +541,9 @@
       <c r="C7" t="n" s="0">
         <v>3.0</v>
       </c>
+      <c r="D7" t="n" s="0">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s" s="0">
@@ -537,6 +555,9 @@
       <c r="C8" t="n" s="0">
         <v>0.0</v>
       </c>
+      <c r="D8" t="n" s="0">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s" s="0">
@@ -548,13 +569,22 @@
       <c r="C9" t="n" s="0">
         <v>4.0</v>
       </c>
+      <c r="D9" t="n" s="0">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s" s="0">
         <v>10</v>
       </c>
       <c r="B10" s="0">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
